--- a/biology/Botanique/Guatteria_punctata/Guatteria_punctata.xlsx
+++ b/biology/Botanique/Guatteria_punctata/Guatteria_punctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guatteria punctata est une espèce de petit arbre appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Mamayavé/Maman yawée, Mamayawé commun (Nenge tongo), Iliwa (Wayana), Iwi, Iwilusi, Pina? ipinu (Wayãpi), ou anciennement Pinaou (Galibi cf. Aublet 1775).
 Ailleurs, on l'appelle 
@@ -490,7 +502,7 @@
 en Équateur Fandicho, Fanicho, Shapattovo (Cofán), Gañitahue, Mucataremon, Oñitahua, Oñitahue, Oñitahuemo (Huaorani), Ucucha anona (Quichua), Neayatio (Secoya), Chiwiachim (Shuar), Cargadera negra, au Guyana Arara, Black Kuyama (Arawak), Black maho (Créole), Kuyama, Yarayara (Carib), 
 au Pérou Muraya, Wámpuyais, Yaïs (Shuar), Amarillo, Anonilla, Anonilla blanca, Auca hicoja, Carahuasca, Carahuasca negra, Caravasca, Yanahuasca, Yana huasca, Zoro caspi, Zorro caspi, 
 au Suriname Arara, Koeli koejokoe (Arawak), Baaka pau, Boesi-soensaka (Nenge tongo), Mamaai, Blaka paw (Saramaka), Boszuurzak, Krabietakaka, Panta, Pedrekoe pisi (Sranan tongo), 
-au Venezuela Annoncillo, Majagua, Majagua blanca, Majagua hoja larga, Majagua negra, Wosewayek, Yarayara amarilla, Yarayara morada[5], Majagua anón, Majagua verde[6].
+au Venezuela Annoncillo, Majagua, Majagua blanca, Majagua hoja larga, Majagua negra, Wosewayek, Yarayara amarilla, Yarayara morada, Majagua anón, Majagua verde.
 </t>
         </is>
       </c>
@@ -519,7 +531,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guatteria punctata est un arbre ou arbuste haut de 1 à 45 m, pour 5 à 75 cm de diamètre.
 Les Jeunes rameaux sont densément à faiblement couverts de poils apprimés (ou rarement dressés), devenant rapidement glabres. 
@@ -540,8 +554,8 @@
 Les pétales mesurant 10-40{- 50} mm sur 5-20 mm, sont de couleur verte, jaune, crème ou blanche, parfois glauques, de forme oblongue-elliptique, la face externe densément couverte de poils dressés.
 Les étamines sont longues de 1 à 2 mm, le connectif velu, papilleux ou glabre, ombonées ou plates. 
 On compte 5-100 monocarpes, mesurant 7-20 x 4-15 mm, à paroi épaisse de 0,1-1{-4} mm, portés au bout de stipes mesurant 6-30 x 0,5-2{-3} mm, de couleur verte devenant noir à noir-violet (noir à brun, parfois glauque au séchage), de forme ellipsoïde à subglobuleuse, faiblement couverts de poils étalés, devenant rapidement glabres, à sommet arrondi à apiculé (apiculum long de moins de 1 mm). 
-Les graines sont de forme ellipsoïde à subglobuleuse, mesurant 6-12 mm par 4-8 mm, de couleur brun clair à foncé, de texture piquée à lisse, à parfois rugueuse, et avec un raphé en relief[5].
-Les fruits de cette espèce (Guatteria latipetala R.E. Fr. = Guatteria punctata (Aubl.) R.A.Howard) ressemblent à ceux de Guatteria ovalifolia R.E. Fr.[6].
+Les graines sont de forme ellipsoïde à subglobuleuse, mesurant 6-12 mm par 4-8 mm, de couleur brun clair à foncé, de texture piquée à lisse, à parfois rugueuse, et avec un raphé en relief.
+Les fruits de cette espèce (Guatteria latipetala R.E. Fr. = Guatteria punctata (Aubl.) R.A.Howard) ressemblent à ceux de Guatteria ovalifolia R.E. Fr..
 </t>
         </is>
       </c>
@@ -570,9 +584,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guatteria punctata est présent en Colombie (Amazonas, Antioquia, Boyacá, Cauca, Chocó, Guainía, Meta, Valle del Cauca, Vaupés, Vichada), au Venezuela (Amazonas, Bolívar, Delta Amacuro, Zulia), au Guyana, au Suriname, en Guyane, en Équateur (Azuay, Carchi, Esmeraldas, Morona-Santiago, Napo, Pastaza, Santiago-Zamora, Sucumbíos, Zamora-Chinchipe), au Pérou (Amazonas, Cajamarca, Cusco, Huánuco, Loreto, Madre de Dios, Oxapampa, Pasco, San Martín, Ucayali) et au Brésil (Acre, Amapá, Amazonas, Maranhão, Mato Grosso, Pará, Rondônia), Bolivie (Beni, Cochabamba, La Paz, Pando, Santa Cruz)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria punctata est présent en Colombie (Amazonas, Antioquia, Boyacá, Cauca, Chocó, Guainía, Meta, Valle del Cauca, Vaupés, Vichada), au Venezuela (Amazonas, Bolívar, Delta Amacuro, Zulia), au Guyana, au Suriname, en Guyane, en Équateur (Azuay, Carchi, Esmeraldas, Morona-Santiago, Napo, Pastaza, Santiago-Zamora, Sucumbíos, Zamora-Chinchipe), au Pérou (Amazonas, Cajamarca, Cusco, Huánuco, Loreto, Madre de Dios, Oxapampa, Pasco, San Martín, Ucayali) et au Brésil (Acre, Amapá, Amazonas, Maranhão, Mato Grosso, Pará, Rondônia), Bolivie (Beni, Cochabamba, La Paz, Pando, Santa Cruz).
 </t>
         </is>
       </c>
@@ -601,11 +617,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Guatteria punctata dans les forêts de terre ferme (non inondées) de plaine, submontagnardes ou montagnardes, souvent sur des sols argileux (au Venezuela dans les forêts ouvertes, parfois broussailleuses, parfois sur des pentes ou des parcelles de sable blanc[6]), autour de 0-2 800 m d'altitude (environ 50-700 m d'altitude au Venezuela[6]). Il fleurit et fructifie toute l'année[5].
-Guatteria punctata est l'hôte du champignon parasite Aecidium cf. amazonense Henn.[7].
-Guatteria punctata a été retrouvé parmi la régénération naturelle sur une ancienne exploitation de la bauxite et a été suggéré pour la restauration de zones dégradées[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Guatteria punctata dans les forêts de terre ferme (non inondées) de plaine, submontagnardes ou montagnardes, souvent sur des sols argileux (au Venezuela dans les forêts ouvertes, parfois broussailleuses, parfois sur des pentes ou des parcelles de sable blanc), autour de 0-2 800 m d'altitude (environ 50-700 m d'altitude au Venezuela). Il fleurit et fructifie toute l'année.
+Guatteria punctata est l'hôte du champignon parasite Aecidium cf. amazonense Henn..
+Guatteria punctata a été retrouvé parmi la régénération naturelle sur une ancienne exploitation de la bauxite et a été suggéré pour la restauration de zones dégradées.
 </t>
         </is>
       </c>
@@ -634,13 +652,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe du fruit mûr de Guatteria punctata est comestible.
 Ses feuilles sont employée en bain d'herbes médicinales.
-Son bois sert à fabriquer des planches[5].
-L'huile essentielle de feuilles de Guatteria olivacea R. E. Fr. (= Guatteria punctata (Aubl.) R.A.Howard) présente des propriétés anti-tumorales dans le cancer du foie[9], mais aussi antioxydantes[10], trypanocides avec une CI50 de 0,029 μg/mL et un indice de sélectivité (IS) de 32 (34 fois plus active que le médicament de référence, la benznidazole) et fortement antibactérienne (concentrations minimales d'inhibition de 4,68 à 37,5 µg/mL contre des souches de Streptococcus mutans)[11],[12].
-Les effets comportementaux d'extrait de Guatteria punctata ont été étudiés sur des souris[13].
+Son bois sert à fabriquer des planches.
+L'huile essentielle de feuilles de Guatteria olivacea R. E. Fr. (= Guatteria punctata (Aubl.) R.A.Howard) présente des propriétés anti-tumorales dans le cancer du foie, mais aussi antioxydantes, trypanocides avec une CI50 de 0,029 μg/mL et un indice de sélectivité (IS) de 32 (34 fois plus active que le médicament de référence, la benznidazole) et fortement antibactérienne (concentrations minimales d'inhibition de 4,68 à 37,5 µg/mL contre des souches de Streptococcus mutans),.
+Les effets comportementaux d'extrait de Guatteria punctata ont été étudiés sur des souris.
 </t>
         </is>
       </c>
@@ -669,9 +689,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante : 
 « 2. ANNONA (punctata) fructu levi, punctato, carne tubeſcente. (Tabula 247.) 
 Frutex trunco ramoſo, viginti-pedali 5 ramis hinc &amp; indè ſparſis. Folia alterna, ovato-oblonga, acuta, glabra, integerrima, brevi petiolata. Flores ſolitarii, axiliares. Corolla ſublutea. Fructus ; bacca ovata, ſubrotunda, punctata, obſcurè rufa, carnosa, intùs tubeſcens, edulis.  
 Florebat Novembri ; fructum ferebat Aprili &amp; Maio.  
